--- a/database/industries/darou/dejaber/income/yearly/dollar.xlsx
+++ b/database/industries/darou/dejaber/income/yearly/dollar.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\dejaber\income\yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dejaber\income\yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFECD25-22F4-4AFD-9B30-1ED15C595C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>دجابر-داروسازی‌ جابرابن‌حیان‌</t>
@@ -66,7 +67,7 @@
     <t>1401-02-27 (11)</t>
   </si>
   <si>
-    <t>1401-09-15 (5)</t>
+    <t>1401-10-30 (6)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -126,7 +127,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -307,7 +308,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -319,7 +320,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -366,6 +367,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -401,6 +419,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -552,7 +587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/database/industries/darou/dejaber/income/yearly/dollar.xlsx
+++ b/database/industries/darou/dejaber/income/yearly/dollar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dejaber\income\yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dejaber\income\yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFECD25-22F4-4AFD-9B30-1ED15C595C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D37836-C6F8-4F1E-B13D-BD85DDA97E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,12 +49,12 @@
     <t>12 ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1398-03-08 (10)</t>
-  </si>
-  <si>
     <t>1399-03-12 (9)</t>
   </si>
   <si>
@@ -67,7 +64,10 @@
     <t>1401-02-27 (11)</t>
   </si>
   <si>
-    <t>1401-10-30 (6)</t>
+    <t>1402-02-28 (7)</t>
+  </si>
+  <si>
+    <t>1402-02-28</t>
   </si>
   <si>
     <t>فروش</t>
@@ -592,14 +592,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -608,7 +608,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -619,7 +619,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -630,7 +630,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -639,7 +639,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -650,7 +650,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -661,7 +661,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -670,7 +670,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -691,7 +691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -712,7 +712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -721,91 +721,91 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>56750</v>
+        <v>20582</v>
       </c>
       <c r="E11" s="13">
-        <v>20582</v>
+        <v>15758</v>
       </c>
       <c r="F11" s="13">
-        <v>15758</v>
+        <v>14557</v>
       </c>
       <c r="G11" s="13">
-        <v>14557</v>
+        <v>19296</v>
       </c>
       <c r="H11" s="13">
-        <v>19296</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+        <v>20800</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-32313</v>
+        <v>-13328</v>
       </c>
       <c r="E12" s="11">
-        <v>-13328</v>
+        <v>-11514</v>
       </c>
       <c r="F12" s="11">
-        <v>-11514</v>
+        <v>-9416</v>
       </c>
       <c r="G12" s="11">
-        <v>-9416</v>
+        <v>-13316</v>
       </c>
       <c r="H12" s="11">
-        <v>-13316</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-16725</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>24438</v>
+        <v>7254</v>
       </c>
       <c r="E13" s="15">
-        <v>7254</v>
+        <v>4245</v>
       </c>
       <c r="F13" s="15">
-        <v>4245</v>
+        <v>5140</v>
       </c>
       <c r="G13" s="15">
-        <v>5140</v>
+        <v>5980</v>
       </c>
       <c r="H13" s="15">
-        <v>5980</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4075</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-3028</v>
+        <v>-1418</v>
       </c>
       <c r="E14" s="11">
-        <v>-1418</v>
+        <v>-1378</v>
       </c>
       <c r="F14" s="11">
-        <v>-1378</v>
+        <v>-1116</v>
       </c>
       <c r="G14" s="11">
-        <v>-1116</v>
+        <v>-1653</v>
       </c>
       <c r="H14" s="11">
-        <v>-1653</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-2009</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
@@ -826,154 +826,154 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>-259</v>
+        <v>-41</v>
       </c>
       <c r="E16" s="11">
-        <v>-41</v>
+        <v>-126</v>
       </c>
       <c r="F16" s="11">
-        <v>-126</v>
+        <v>-179</v>
       </c>
       <c r="G16" s="11">
-        <v>-179</v>
+        <v>-176</v>
       </c>
       <c r="H16" s="11">
-        <v>-176</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-294</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>21150</v>
+        <v>5795</v>
       </c>
       <c r="E17" s="15">
-        <v>5795</v>
+        <v>2741</v>
       </c>
       <c r="F17" s="15">
-        <v>2741</v>
+        <v>3846</v>
       </c>
       <c r="G17" s="15">
-        <v>3846</v>
+        <v>4150</v>
       </c>
       <c r="H17" s="15">
-        <v>4150</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-4896</v>
+        <v>-2383</v>
       </c>
       <c r="E18" s="11">
-        <v>-2383</v>
+        <v>-2093</v>
       </c>
       <c r="F18" s="11">
-        <v>-2093</v>
+        <v>-1436</v>
       </c>
       <c r="G18" s="11">
-        <v>-1436</v>
+        <v>-1933</v>
       </c>
       <c r="H18" s="11">
-        <v>-1933</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-1965</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>8531</v>
+        <v>4981</v>
       </c>
       <c r="E19" s="13">
-        <v>4981</v>
+        <v>8303</v>
       </c>
       <c r="F19" s="13">
-        <v>8303</v>
+        <v>5332</v>
       </c>
       <c r="G19" s="13">
-        <v>5332</v>
+        <v>7921</v>
       </c>
       <c r="H19" s="13">
-        <v>7921</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+        <v>11203</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>24785</v>
+        <v>8393</v>
       </c>
       <c r="E20" s="17">
-        <v>8393</v>
+        <v>8951</v>
       </c>
       <c r="F20" s="17">
-        <v>8951</v>
+        <v>7743</v>
       </c>
       <c r="G20" s="17">
-        <v>7743</v>
+        <v>10138</v>
       </c>
       <c r="H20" s="17">
-        <v>10138</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>11010</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-3661</v>
+        <v>-852</v>
       </c>
       <c r="E21" s="13">
-        <v>-852</v>
+        <v>-370</v>
       </c>
       <c r="F21" s="13">
-        <v>-370</v>
+        <v>-653</v>
       </c>
       <c r="G21" s="13">
-        <v>-653</v>
-      </c>
-      <c r="H21" s="13">
         <v>-536</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>21123</v>
+        <v>7541</v>
       </c>
       <c r="E22" s="17">
-        <v>7541</v>
+        <v>8581</v>
       </c>
       <c r="F22" s="17">
-        <v>8581</v>
+        <v>7090</v>
       </c>
       <c r="G22" s="17">
-        <v>7090</v>
+        <v>9602</v>
       </c>
       <c r="H22" s="17">
-        <v>9602</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>11010</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>29</v>
       </c>
@@ -987,44 +987,44 @@
       <c r="F23" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="13">
+        <v>4</v>
+      </c>
+      <c r="H23" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>21123</v>
+        <v>7541</v>
       </c>
       <c r="E24" s="17">
-        <v>7541</v>
+        <v>8581</v>
       </c>
       <c r="F24" s="17">
-        <v>8581</v>
+        <v>7090</v>
       </c>
       <c r="G24" s="17">
-        <v>7090</v>
+        <v>9606</v>
       </c>
       <c r="H24" s="17">
-        <v>9602</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+        <v>11015</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="13">
+      <c r="D25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="13">
         <v>0</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>21</v>
       </c>
       <c r="F25" s="13">
         <v>0</v>
@@ -1036,28 +1036,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="11"/>
-      <c r="D26" s="11">
-        <v>18621</v>
-      </c>
-      <c r="E26" s="11" t="s">
+      <c r="D26" s="11" t="s">
         <v>21</v>
       </c>
+      <c r="E26" s="11">
+        <v>8840</v>
+      </c>
       <c r="F26" s="11">
-        <v>8840</v>
+        <v>10031</v>
       </c>
       <c r="G26" s="11">
-        <v>10031</v>
+        <v>8596</v>
       </c>
       <c r="H26" s="11">
-        <v>8596</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6427</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>33</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
